--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/SOUTH_DAKOTA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/SOUTH_DAKOTA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -742,7 +742,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -869,12 +869,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C36">
@@ -900,7 +900,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C38">
@@ -1048,7 +1048,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C49">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C51">
@@ -1118,7 +1118,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C54">
@@ -1157,7 +1157,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C57">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C58">
@@ -1183,7 +1183,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C59">
@@ -1248,7 +1248,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C64">
@@ -1261,7 +1261,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C65">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C68">
@@ -1318,7 +1318,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C69">
@@ -1344,7 +1344,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C71">
@@ -1357,7 +1357,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C72">
@@ -1401,7 +1401,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C75">
@@ -1479,7 +1479,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C81">
@@ -1518,7 +1518,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C84">
@@ -1531,7 +1531,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C85">
@@ -1557,7 +1557,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C87">
@@ -1590,7 +1590,7 @@
         <v>22</v>
       </c>
       <c r="D89">
-        <v>0.09090909090909091</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="90">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C113">
@@ -1941,7 +1941,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C115">
@@ -2063,7 +2063,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C124">
@@ -2076,7 +2076,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C125">
@@ -2115,7 +2115,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C128">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C133">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C158">
@@ -2553,7 +2553,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C159">
@@ -2618,7 +2618,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C164">
@@ -2657,7 +2657,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C167">
@@ -2766,7 +2766,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C175">
@@ -2813,41 +2813,6 @@
       </c>
       <c r="D178">
         <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/SOUTH_DAKOTA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/SOUTH_DAKOTA_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>León</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Jaltocán</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1412,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>El Arenal</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -1625,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1716,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -1729,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1768,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>San Pedro Lagunillas</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1895,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1926,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Chahuites</t>
@@ -1939,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1952,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -1965,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -1978,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1991,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -2004,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Pedro Tapanatepec</t>
@@ -2017,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -2030,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2061,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -2074,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Huitzilan De Serdán</t>
@@ -2087,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2100,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -2113,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -2126,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -2139,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2152,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2165,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2196,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2227,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -2240,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -2253,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -2266,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2279,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -2292,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Vanegas</t>
@@ -2305,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2336,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -2349,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2380,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -2393,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -2406,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -2419,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2450,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2481,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -2494,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2507,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -2520,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2551,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Cosautlán De Carvajal</t>
@@ -2564,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -2577,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -2590,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -2603,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -2616,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2629,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2642,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2655,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -2668,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2699,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -2712,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -2725,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2738,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -2751,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2764,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -2777,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2790,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Total</t>
